--- a/data_year/zb/科技/规模以上工业企业的科技活动基本情况.xlsx
+++ b/data_year/zb/科技/规模以上工业企业的科技活动基本情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,1076 +593,872 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64569</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2154.3</v>
-      </c>
+        <v>386075</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.40000000000001</v>
+        <v>181.6456</v>
       </c>
       <c r="E2" t="n">
-        <v>17555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41.1</v>
-      </c>
+        <v>31320</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>841.6</v>
+        <v>3956.97933</v>
       </c>
       <c r="H2" t="n">
-        <v>20456</v>
+        <v>134843</v>
       </c>
       <c r="I2" t="n">
-        <v>397.36357</v>
+        <v>448.98607</v>
       </c>
       <c r="J2" t="n">
-        <v>61.20624</v>
+        <v>202.16691</v>
       </c>
       <c r="K2" t="n">
-        <v>2953.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88.2</v>
-      </c>
+        <v>4293.66239</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>53122000</v>
+        <v>202230938.1</v>
       </c>
       <c r="N2" t="n">
-        <v>9657000</v>
+        <v>68459429.8</v>
       </c>
       <c r="O2" t="n">
-        <v>76176</v>
+        <v>266232</v>
       </c>
       <c r="P2" t="n">
-        <v>228085839.3</v>
+        <v>1005827244.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>30315</v>
+        <v>201089</v>
       </c>
       <c r="R2" t="n">
-        <v>6.18</v>
+        <v>11.5</v>
       </c>
       <c r="S2" t="n">
-        <v>17075</v>
-      </c>
-      <c r="T2" t="n">
-        <v>106.4</v>
-      </c>
+        <v>37467</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>542000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>429000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>401000</v>
-      </c>
+        <v>1939074.7</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>11045000</v>
+        <v>59938054.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.710204479356589</v>
       </c>
       <c r="Z2" t="n">
-        <v>53641</v>
+        <v>232158</v>
       </c>
       <c r="AA2" t="n">
-        <v>921.2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2402.1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2504.9</v>
-      </c>
+        <v>5051.99383</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>82.48220000000001</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>210.2</v>
-      </c>
+        <v>220.52192</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173573</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5483.17502</v>
-      </c>
+        <v>489945</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>130.4275</v>
+        <v>226.7561</v>
       </c>
       <c r="E3" t="n">
-        <v>26177</v>
-      </c>
-      <c r="F3" t="n">
-        <v>89.49809999999999</v>
-      </c>
+        <v>45937</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>2634.8</v>
+        <v>5233.35467</v>
       </c>
       <c r="H3" t="n">
-        <v>59254</v>
+        <v>176167</v>
       </c>
       <c r="I3" t="n">
-        <v>466.91171</v>
+        <v>393.90662</v>
       </c>
       <c r="J3" t="n">
-        <v>122.7</v>
+        <v>156.8382</v>
       </c>
       <c r="K3" t="n">
-        <v>4672.7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>230.61427</v>
-      </c>
+        <v>4161.75455</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>140816000</v>
+        <v>218941519.3</v>
       </c>
       <c r="N3" t="n">
-        <v>36760615.3</v>
+        <v>79985405.09999999</v>
       </c>
       <c r="O3" t="n">
-        <v>184859</v>
+        <v>323448</v>
       </c>
       <c r="P3" t="n">
-        <v>570270986</v>
+        <v>1105297711.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>80252</v>
+        <v>277196</v>
       </c>
       <c r="R3" t="n">
-        <v>6.5</v>
+        <v>13.7</v>
       </c>
       <c r="S3" t="n">
-        <v>27278</v>
-      </c>
-      <c r="T3" t="n">
-        <v>197.8975</v>
-      </c>
+        <v>47204</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>1229998.67</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1283966.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>950086.1</v>
-      </c>
+        <v>2246179</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>30731302.8</v>
+        <v>72006450.40000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.610700930010981</v>
+        <v>0.774791912884392</v>
       </c>
       <c r="Z3" t="n">
-        <v>143448</v>
+        <v>287524</v>
       </c>
       <c r="AA3" t="n">
-        <v>2902</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>309.1848</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5941.67975</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6160.5147</v>
-      </c>
+        <v>6230.6119</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>358.59949</v>
-      </c>
+        <v>201.69183</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265808</v>
+        <v>560918</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>155.0164</v>
+        <v>238.7943</v>
       </c>
       <c r="E4" t="n">
-        <v>29879</v>
+        <v>51625</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2983.6</v>
+        <v>5941.51897</v>
       </c>
       <c r="H4" t="n">
-        <v>92450</v>
+        <v>205146</v>
       </c>
       <c r="I4" t="n">
-        <v>422.17048</v>
+        <v>393.94552</v>
       </c>
       <c r="J4" t="n">
-        <v>182</v>
+        <v>150.57773</v>
       </c>
       <c r="K4" t="n">
-        <v>4344.7</v>
+        <v>4072.11679</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>115725000</v>
+        <v>228534683</v>
       </c>
       <c r="N4" t="n">
-        <v>44820000</v>
+        <v>92467435.90000001</v>
       </c>
       <c r="O4" t="n">
-        <v>237754</v>
+        <v>358287</v>
       </c>
       <c r="P4" t="n">
-        <v>658382000</v>
+        <v>1284606903.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>118245</v>
+        <v>335401</v>
       </c>
       <c r="R4" t="n">
-        <v>8.476170958000001</v>
+        <v>14.8298002390856</v>
       </c>
       <c r="S4" t="n">
-        <v>36387</v>
+        <v>54832</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>1447000</v>
+        <v>2493957.7</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>37757000</v>
+        <v>83184004.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.692427948125696</v>
+        <v>0.801931415408185</v>
       </c>
       <c r="Z4" t="n">
-        <v>194400</v>
+        <v>322567</v>
       </c>
       <c r="AA4" t="n">
-        <v>3185.9</v>
+        <v>7294.49019</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>203.41002</v>
+        <v>214.38102</v>
       </c>
       <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>386075</v>
+        <v>630561</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>181.6456</v>
+        <v>246.4</v>
       </c>
       <c r="E5" t="n">
-        <v>31320</v>
+        <v>57199</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>3956.97933</v>
+        <v>6257.6304</v>
       </c>
       <c r="H5" t="n">
-        <v>134843</v>
+        <v>239925</v>
       </c>
       <c r="I5" t="n">
-        <v>448.98607</v>
+        <v>387.5109</v>
       </c>
       <c r="J5" t="n">
-        <v>202.16691</v>
+        <v>143.1816</v>
       </c>
       <c r="K5" t="n">
-        <v>4293.66239</v>
+        <v>3797.9826</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>202230938.1</v>
+        <v>269043782.5</v>
       </c>
       <c r="N5" t="n">
-        <v>68459429.8</v>
+        <v>101231582</v>
       </c>
       <c r="O5" t="n">
-        <v>266232</v>
+        <v>375863</v>
       </c>
       <c r="P5" t="n">
-        <v>1005827244.7</v>
+        <v>1428952867</v>
       </c>
       <c r="Q5" t="n">
-        <v>201089</v>
+        <v>448885</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>16.9</v>
       </c>
       <c r="S5" t="n">
-        <v>37467</v>
+        <v>63676</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1939074.7</v>
+        <v>2641578.1</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>59938054.5</v>
+        <v>92542587</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.710204479356589</v>
+        <v>0.84</v>
       </c>
       <c r="Z5" t="n">
-        <v>232158</v>
+        <v>342507</v>
       </c>
       <c r="AA5" t="n">
-        <v>5051.99383</v>
+        <v>8162.9754</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>220.52192</v>
+        <v>213.5321</v>
       </c>
       <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489945</v>
+        <v>638513</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>226.7561</v>
+        <v>266.8376</v>
       </c>
       <c r="E6" t="n">
-        <v>45937</v>
+        <v>62954</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>5233.35467</v>
+        <v>6793.86622</v>
       </c>
       <c r="H6" t="n">
-        <v>176167</v>
+        <v>245688</v>
       </c>
       <c r="I6" t="n">
-        <v>393.90662</v>
+        <v>414.0636</v>
       </c>
       <c r="J6" t="n">
-        <v>156.8382</v>
+        <v>108.38797</v>
       </c>
       <c r="K6" t="n">
-        <v>4161.75455</v>
+        <v>3147.6442</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>218941519.3</v>
+        <v>291326776.3</v>
       </c>
       <c r="N6" t="n">
-        <v>79985405.09999999</v>
+        <v>102708341.9</v>
       </c>
       <c r="O6" t="n">
-        <v>323448</v>
+        <v>326286</v>
       </c>
       <c r="P6" t="n">
-        <v>1105297711.1</v>
+        <v>1508565472.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>277196</v>
+        <v>573765</v>
       </c>
       <c r="R6" t="n">
-        <v>13.7</v>
+        <v>19.2</v>
       </c>
       <c r="S6" t="n">
-        <v>47204</v>
+        <v>73570</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2246179</v>
+        <v>2638290</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>72006450.40000001</v>
+        <v>100139329.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.774791912884392</v>
+        <v>0.90210356707158</v>
       </c>
       <c r="Z6" t="n">
-        <v>287524</v>
+        <v>309895</v>
       </c>
       <c r="AA6" t="n">
-        <v>6230.6119</v>
+        <v>9146.71429</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>201.69183</v>
+        <v>229.94454</v>
       </c>
       <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560918</v>
+        <v>715397</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>238.7943</v>
+        <v>292.3953</v>
       </c>
       <c r="E7" t="n">
-        <v>51625</v>
+        <v>72963</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>5941.51897</v>
+        <v>7664.48473</v>
       </c>
       <c r="H7" t="n">
-        <v>205146</v>
+        <v>286987</v>
       </c>
       <c r="I7" t="n">
-        <v>393.94552</v>
+        <v>475.4183</v>
       </c>
       <c r="J7" t="n">
-        <v>150.57773</v>
+        <v>109.2479</v>
       </c>
       <c r="K7" t="n">
-        <v>4072.11679</v>
+        <v>3016.60608</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>228534683</v>
+        <v>327130958.4</v>
       </c>
       <c r="N7" t="n">
-        <v>92467435.90000001</v>
+        <v>117662657.9</v>
       </c>
       <c r="O7" t="n">
-        <v>358287</v>
+        <v>391872</v>
       </c>
       <c r="P7" t="n">
-        <v>1284606903.2</v>
+        <v>1746041534.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>335401</v>
+        <v>769847</v>
       </c>
       <c r="R7" t="n">
-        <v>14.8298002390856</v>
+        <v>22.9518805850298</v>
       </c>
       <c r="S7" t="n">
-        <v>54832</v>
+        <v>86891</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>2493957.7</v>
+        <v>2702489.2</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>83184004.8</v>
+        <v>109446585.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.801931415408185</v>
+        <v>0.94432438198848</v>
       </c>
       <c r="Z7" t="n">
-        <v>322567</v>
+        <v>360997</v>
       </c>
       <c r="AA7" t="n">
-        <v>7294.49019</v>
+        <v>10064.33325</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>214.38102</v>
+        <v>208.00229</v>
       </c>
       <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630561</v>
+        <v>817037</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>246.4</v>
+        <v>325.4179</v>
       </c>
       <c r="E8" t="n">
-        <v>57199</v>
+        <v>82667</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>6257.6304</v>
+        <v>8955.491029999999</v>
       </c>
       <c r="H8" t="n">
-        <v>239925</v>
+        <v>320626</v>
       </c>
       <c r="I8" t="n">
-        <v>387.5109</v>
+        <v>399.31534</v>
       </c>
       <c r="J8" t="n">
-        <v>143.1816</v>
+        <v>118.53889</v>
       </c>
       <c r="K8" t="n">
-        <v>3797.9826</v>
+        <v>3103.37919</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>269043782.5</v>
+        <v>349447537.4</v>
       </c>
       <c r="N8" t="n">
-        <v>101231582</v>
+        <v>134978371.2</v>
       </c>
       <c r="O8" t="n">
-        <v>375863</v>
+        <v>477861</v>
       </c>
       <c r="P8" t="n">
-        <v>1428952867</v>
+        <v>1915686889.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>448885</v>
+        <v>933990</v>
       </c>
       <c r="R8" t="n">
-        <v>16.9</v>
+        <v>27.4335618166301</v>
       </c>
       <c r="S8" t="n">
-        <v>63676</v>
+        <v>102218</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>2641578.1</v>
+        <v>2736244</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>92542587</v>
+        <v>120129588.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="Z8" t="n">
-        <v>342507</v>
+        <v>445029</v>
       </c>
       <c r="AA8" t="n">
-        <v>8162.9754</v>
+        <v>11990.23228</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>213.5321</v>
+        <v>200.86962</v>
       </c>
       <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>638513</v>
+        <v>957298</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>266.8376</v>
+        <v>318.2794</v>
       </c>
       <c r="E9" t="n">
-        <v>62954</v>
+        <v>83115</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>6793.86622</v>
+        <v>10321.26433</v>
       </c>
       <c r="H9" t="n">
-        <v>245688</v>
+        <v>371569</v>
       </c>
       <c r="I9" t="n">
-        <v>414.0636</v>
+        <v>465.26812</v>
       </c>
       <c r="J9" t="n">
-        <v>108.38797</v>
+        <v>91.00769</v>
       </c>
       <c r="K9" t="n">
-        <v>3147.6442</v>
+        <v>3233.4113</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>291326776.3</v>
+        <v>361608191.1</v>
       </c>
       <c r="N9" t="n">
-        <v>102708341.9</v>
+        <v>149872195.7</v>
       </c>
       <c r="O9" t="n">
-        <v>326286</v>
+        <v>558305</v>
       </c>
       <c r="P9" t="n">
-        <v>1508565472.7</v>
+        <v>1970940693.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>573765</v>
+        <v>1094200</v>
       </c>
       <c r="R9" t="n">
-        <v>19.2</v>
+        <v>27.968855897154</v>
       </c>
       <c r="S9" t="n">
-        <v>73570</v>
+        <v>104820</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>2638290</v>
+        <v>2981234</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>100139329.8</v>
+        <v>129548263.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.90210356707158</v>
+        <v>1.25043142014992</v>
       </c>
       <c r="Z9" t="n">
-        <v>309895</v>
+        <v>472299</v>
       </c>
       <c r="AA9" t="n">
-        <v>9146.71429</v>
+        <v>12333.54683</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>229.94454</v>
+        <v>440.16959</v>
       </c>
       <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715397</v>
+        <v>1059808</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>292.3953</v>
+        <v>341.6317</v>
       </c>
       <c r="E10" t="n">
-        <v>72963</v>
+        <v>95459</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>7664.48473</v>
+        <v>12175.48281</v>
       </c>
       <c r="H10" t="n">
-        <v>286987</v>
+        <v>398802</v>
       </c>
       <c r="I10" t="n">
-        <v>475.4183</v>
+        <v>476.69007</v>
       </c>
       <c r="J10" t="n">
-        <v>109.2479</v>
+        <v>96.76918999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3016.60608</v>
+        <v>3740.15309</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>327130958.4</v>
+        <v>392692887.9</v>
       </c>
       <c r="N10" t="n">
-        <v>117662657.9</v>
+        <v>169857184.5</v>
       </c>
       <c r="O10" t="n">
-        <v>391872</v>
+        <v>671799</v>
       </c>
       <c r="P10" t="n">
-        <v>1746041534.3</v>
+        <v>2120602637.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>769847</v>
+        <v>1218074</v>
       </c>
       <c r="R10" t="n">
-        <v>22.9518805850298</v>
+        <v>34.2044302306</v>
       </c>
       <c r="S10" t="n">
-        <v>86891</v>
+        <v>129198</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>2702489.2</v>
+        <v>3151828</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>109446585.6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.94432438198848</v>
-      </c>
+        <v>139710989.4</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>360997</v>
+        <v>598072</v>
       </c>
       <c r="AA10" t="n">
-        <v>10064.33325</v>
+        <v>14236.90551</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>208.00229</v>
+        <v>537.40931</v>
       </c>
       <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>817037</v>
+        <v>1243927</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>325.4179</v>
+        <v>371.327</v>
       </c>
       <c r="E11" t="n">
-        <v>82667</v>
+        <v>105094</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>8955.491029999999</v>
+        <v>13583.56138</v>
       </c>
       <c r="H11" t="n">
-        <v>320626</v>
+        <v>446069</v>
       </c>
       <c r="I11" t="n">
-        <v>399.31534</v>
+        <v>459.95036</v>
       </c>
       <c r="J11" t="n">
-        <v>118.53889</v>
+        <v>75.59394</v>
       </c>
       <c r="K11" t="n">
-        <v>3103.37919</v>
+        <v>3516.67798</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>349447537.4</v>
+        <v>438532722.8</v>
       </c>
       <c r="N11" t="n">
-        <v>134978371.2</v>
+        <v>186237781.1</v>
       </c>
       <c r="O11" t="n">
-        <v>477861</v>
+        <v>788125</v>
       </c>
       <c r="P11" t="n">
-        <v>1915686889.4</v>
+        <v>2380736642.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>933990</v>
+        <v>1447950</v>
       </c>
       <c r="R11" t="n">
-        <v>27.4335618166301</v>
+        <v>36.74090438</v>
       </c>
       <c r="S11" t="n">
-        <v>102218</v>
+        <v>146691</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2736244</v>
+        <v>3460409</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>120129588.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.06</v>
-      </c>
+        <v>152712904.9</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>445029</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11990.23228</v>
-      </c>
+        <v>714527</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>200.86962</v>
+        <v>456.71445</v>
       </c>
       <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957298</v>
+        <v>1403611</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>318.2794</v>
+        <v>412.4619</v>
       </c>
       <c r="E12" t="n">
-        <v>83115</v>
+        <v>120367</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>10321.26433</v>
+        <v>16878.97169</v>
       </c>
       <c r="H12" t="n">
-        <v>371569</v>
+        <v>494589</v>
       </c>
       <c r="I12" t="n">
-        <v>465.26812</v>
+        <v>507.75627</v>
       </c>
       <c r="J12" t="n">
-        <v>91.00769</v>
+        <v>80.899</v>
       </c>
       <c r="K12" t="n">
-        <v>3233.4113</v>
+        <v>3844.23516</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>361608191.1</v>
+        <v>524170891.3</v>
       </c>
       <c r="N12" t="n">
-        <v>149872195.7</v>
+        <v>226528583.1</v>
       </c>
       <c r="O12" t="n">
-        <v>558305</v>
+        <v>958709</v>
       </c>
       <c r="P12" t="n">
-        <v>1970940693.9</v>
+        <v>2955666961</v>
       </c>
       <c r="Q12" t="n">
-        <v>1094200</v>
+        <v>1691909</v>
       </c>
       <c r="R12" t="n">
-        <v>27.968855897154</v>
+        <v>38.3</v>
       </c>
       <c r="S12" t="n">
-        <v>104820</v>
+        <v>169224</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2981234</v>
+        <v>3826651</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>129548263.7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.25043142014992</v>
-      </c>
+        <v>175142461.3</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>472299</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12333.54683</v>
-      </c>
+        <v>824637</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>440.16959</v>
+        <v>464.29263</v>
       </c>
       <c r="AF12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1059808</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>341.6317</v>
-      </c>
-      <c r="E13" t="n">
-        <v>95459</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>12175.48281</v>
-      </c>
-      <c r="H13" t="n">
-        <v>398802</v>
-      </c>
-      <c r="I13" t="n">
-        <v>476.69007</v>
-      </c>
-      <c r="J13" t="n">
-        <v>96.76918999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3740.15309</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>392692887.9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>169857184.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>671799</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2120602637.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1218074</v>
-      </c>
-      <c r="R13" t="n">
-        <v>34.2044302306</v>
-      </c>
-      <c r="S13" t="n">
-        <v>129198</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>3151828</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>139710989.4</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>598072</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14236.90551</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="n">
-        <v>537.40931</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1243927</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>371.327</v>
-      </c>
-      <c r="E14" t="n">
-        <v>105094</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>13583.56138</v>
-      </c>
-      <c r="H14" t="n">
-        <v>446069</v>
-      </c>
-      <c r="I14" t="n">
-        <v>459.95036</v>
-      </c>
-      <c r="J14" t="n">
-        <v>75.59394</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3516.67798</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>438532722.8</v>
-      </c>
-      <c r="N14" t="n">
-        <v>186237781.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>788125</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2380736642.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1447950</v>
-      </c>
-      <c r="R14" t="n">
-        <v>36.74090438</v>
-      </c>
-      <c r="S14" t="n">
-        <v>146691</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>3460409</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>152712904.9</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>714527</v>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="n">
-        <v>456.71445</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
